--- a/# State Population and Race Breakdown.xlsx
+++ b/# State Population and Race Breakdown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a23b819fc7901bf5/Documents/School/WSU Data Analytics 115/final project 115/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasha\OneDrive\Documents\School\WSU Data Analytics 115\final project 115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{0369A0F7-36E4-4ECB-9BC3-D87C89162F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A9D1F8D-3CC0-4BFC-A66A-8694B656BE0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF31A1-D5E1-462B-957C-94A9D16F918B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{D05ECCC5-C972-449A-9727-1E7F8C16A181}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
-    <t>Fact</t>
-  </si>
-  <si>
     <t>Persons under 5 years, percent</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>"78"</t>
+  </si>
+  <si>
+    <t>possible correlation:</t>
   </si>
 </sst>
 </file>
@@ -448,12 +448,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6CDDDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -483,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -491,6 +509,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,6 +552,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF6CDDDA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -834,8 +869,8 @@
   <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC1" sqref="BC1:BD1048576"/>
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,176 +881,176 @@
     <col min="57" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2">
         <f>SUM(E2:BC2)</f>
@@ -1181,9 +1216,9 @@
         <v>578759</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
         <f>AVERAGE(E3:DB3)</f>
@@ -1349,12 +1384,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3">
-        <f>AVERAGE(E4:BC4)</f>
+        <f t="shared" ref="B4:B21" si="0">AVERAGE(E4:BC4)</f>
         <v>0.77929411764705891</v>
       </c>
       <c r="C4" s="3">
@@ -1517,12 +1552,12 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <f>AVERAGE(E5:BC5)</f>
+        <f t="shared" si="0"/>
         <v>0.1697647058823529</v>
       </c>
       <c r="C5" s="3">
@@ -1685,12 +1720,12 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3">
-        <f>AVERAGE(E6:BC6)</f>
+        <f t="shared" si="0"/>
         <v>0.49301960784313736</v>
       </c>
       <c r="C6" s="3">
@@ -1853,12 +1888,12 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
-        <f>AVERAGE(E7:BC7)</f>
+        <f t="shared" si="0"/>
         <v>0.50698039215686264</v>
       </c>
       <c r="C7" s="3">
@@ -2021,12 +2056,12 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
-        <f>AVERAGE(E8:BC8)</f>
+        <f t="shared" si="0"/>
         <v>0.77060784313725483</v>
       </c>
       <c r="C8" s="3">
@@ -2189,12 +2224,12 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
-        <f>AVERAGE(E9:BC9)</f>
+        <f t="shared" si="0"/>
         <v>0.12976470588235292</v>
       </c>
       <c r="C9" s="3">
@@ -2357,12 +2392,12 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3">
-        <f>AVERAGE(E10:BC10)</f>
+        <f t="shared" si="0"/>
         <v>2.2176470588235294E-2</v>
       </c>
       <c r="C10" s="3">
@@ -2525,12 +2560,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
-        <f>AVERAGE(E11:BC11)</f>
+        <f t="shared" si="0"/>
         <v>4.401960784313725E-2</v>
       </c>
       <c r="C11" s="3">
@@ -2693,12 +2728,12 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <f>AVERAGE(E12:BC12)</f>
+        <f t="shared" si="0"/>
         <v>3.0745098039215688E-2</v>
       </c>
       <c r="C12" s="3">
@@ -2861,12 +2896,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3">
-        <f>AVERAGE(E13:BC13)</f>
+        <f t="shared" si="0"/>
         <v>0.14294117647058824</v>
       </c>
       <c r="C13" s="3">
@@ -3029,12 +3064,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3">
-        <f>AVERAGE(E14:BC14)</f>
+        <f t="shared" si="0"/>
         <v>6.0616382042459033E-2</v>
       </c>
       <c r="C14" s="3">
@@ -3197,12 +3232,12 @@
         <v>7.8424698363221995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4">
-        <f>AVERAGE(E15:BC15)</f>
+        <f t="shared" si="0"/>
         <v>2.5747058823529412</v>
       </c>
       <c r="C15" s="1">
@@ -3365,180 +3400,181 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="3">
-        <f>AVERAGE(E16:BC16)</f>
+    <row r="16" spans="1:56" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="0"/>
         <v>0.88560784313725516</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="16">
         <v>0.85799999999999998</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="16">
         <v>0.92700000000000005</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="16">
         <v>0.86799999999999999</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="16">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="16">
         <v>0.82899999999999996</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="16">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="16">
         <v>0.91400000000000003</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="16">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="16">
         <v>0.89800000000000002</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="16">
         <v>0.88</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="16">
         <v>0.86699999999999999</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="16">
         <v>0.91800000000000004</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="16">
         <v>0.90600000000000003</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="16">
         <v>0.88900000000000001</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="16">
         <v>0.88600000000000001</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="16">
         <v>0.92</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="16">
         <v>0.90700000000000003</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="16">
         <v>0.85699999999999998</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="16">
         <v>0.84799999999999998</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="16">
         <v>0.92300000000000004</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="16">
         <v>0.9</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="16">
         <v>0.90400000000000003</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="16">
         <v>0.90500000000000003</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="16">
         <v>0.93</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="16">
         <v>0.83899999999999997</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="16">
         <v>0.89600000000000002</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16" s="16">
         <v>0.93200000000000005</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="16">
         <v>0.91100000000000003</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE16" s="16">
         <v>0.86299999999999999</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF16" s="16">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AG16" s="16">
         <v>0.92900000000000005</v>
       </c>
-      <c r="AH16" s="3">
+      <c r="AH16" s="16">
         <v>0.85299999999999998</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI16" s="16">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AJ16" s="16">
         <v>0.874</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AK16" s="16">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AL16" s="16">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AM16" s="16">
         <v>0.878</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AN16" s="16">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AO16" s="16">
         <v>0.755</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AP16" s="16">
         <v>0.90200000000000002</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ16" s="16">
         <v>0.88</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AR16" s="16">
         <v>0.871</v>
       </c>
-      <c r="AS16" s="3">
+      <c r="AS16" s="16">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AT16" s="3">
+      <c r="AT16" s="16">
         <v>0.87</v>
       </c>
-      <c r="AU16" s="3">
+      <c r="AU16" s="16">
         <v>0.83199999999999996</v>
       </c>
-      <c r="AV16" s="3">
+      <c r="AV16" s="16">
         <v>0.92</v>
       </c>
-      <c r="AW16" s="3">
+      <c r="AW16" s="16">
         <v>0.92600000000000005</v>
       </c>
-      <c r="AX16" s="3">
+      <c r="AX16" s="16">
         <v>0.68899999999999995</v>
       </c>
-      <c r="AY16" s="3">
+      <c r="AY16" s="16">
         <v>0.89300000000000002</v>
       </c>
-      <c r="AZ16" s="3">
+      <c r="AZ16" s="16">
         <v>0.91100000000000003</v>
       </c>
-      <c r="BA16" s="3">
+      <c r="BA16" s="16">
         <v>0.86499999999999999</v>
       </c>
-      <c r="BB16" s="3">
+      <c r="BB16" s="16">
         <v>0.91900000000000004</v>
       </c>
-      <c r="BC16" s="3">
+      <c r="BC16" s="16">
         <v>0.92900000000000005</v>
       </c>
+      <c r="BD16" s="17"/>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3">
-        <f>AVERAGE(E17:BC17)</f>
+        <f t="shared" si="0"/>
         <v>0.30990196078431376</v>
       </c>
       <c r="C17" s="3">
@@ -3701,12 +3737,12 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3">
-        <f>AVERAGE(E18:BC18)</f>
+        <f t="shared" si="0"/>
         <v>9.4488235294117665E-2</v>
       </c>
       <c r="C18" s="3">
@@ -3869,12 +3905,12 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3">
-        <f>AVERAGE(E19:BC19)</f>
+        <f t="shared" si="0"/>
         <v>0.10380588235294115</v>
       </c>
       <c r="C19" s="3">
@@ -4037,12 +4073,12 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3">
-        <f>AVERAGE(E20:BC20)</f>
+        <f t="shared" si="0"/>
         <v>0.63405098039215679</v>
       </c>
       <c r="C20" s="3">
@@ -4205,345 +4241,347 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3">
-        <f>AVERAGE(E21:BC21)</f>
+    <row r="21" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
         <v>0.13388823529411767</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <v>0.155</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="8">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="8">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="8">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="8">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="8">
         <v>0.13500000000000001</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="8">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="8">
         <v>0.1</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="8">
         <v>0.113</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="8">
         <v>0.127</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="8">
         <v>0.13300000000000001</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="8">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="8">
         <v>0.112</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="8">
         <v>0.115</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="8">
         <v>0.11899999999999999</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="8">
         <v>0.112</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="8">
         <v>0.114</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="8">
         <v>0.16300000000000001</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="8">
         <v>0.19</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="8">
         <v>0.109</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="8">
         <v>0.09</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="8">
         <v>9.4E-2</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="8">
         <v>0.13</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="8">
         <v>0.09</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="8">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="8">
         <v>0.129</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="8">
         <v>0.126</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="8">
         <v>0.125</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF21" s="8">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG21" s="8">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AH21" s="8">
         <v>0.182</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI21" s="8">
         <v>0.13</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AJ21" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AK21" s="8">
         <v>0.106</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AL21" s="8">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AM21" s="8">
         <v>0.152</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AN21" s="8">
         <v>0.114</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AO21" s="8">
         <v>0.435</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AP21" s="8">
         <v>0.12</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AQ21" s="8">
         <v>0.108</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AR21" s="8">
         <v>0.13800000000000001</v>
       </c>
-      <c r="AS21" s="3">
+      <c r="AS21" s="8">
         <v>0.11899999999999999</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AT21" s="8">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AU21" s="3">
+      <c r="AU21" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AV21" s="3">
+      <c r="AV21" s="8">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AW21" s="3">
+      <c r="AW21" s="8">
         <v>0.10199999999999999</v>
       </c>
-      <c r="AX21" s="3">
+      <c r="AX21" s="8">
         <v>0.44229999999999997</v>
       </c>
-      <c r="AY21" s="3">
+      <c r="AY21" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AZ21" s="3">
+      <c r="AZ21" s="8">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="BA21" s="3">
+      <c r="BA21" s="8">
         <v>0.16</v>
       </c>
-      <c r="BB21" s="3">
+      <c r="BB21" s="8">
         <v>0.104</v>
       </c>
-      <c r="BC21" s="3">
+      <c r="BC21" s="8">
         <v>0.10100000000000001</v>
       </c>
+      <c r="BD21" s="9"/>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="22" spans="1:56" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="11">
         <f>B2/B23</f>
         <v>111.83426458810872</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="12">
         <v>94.4</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="12">
         <v>1.2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="12">
         <v>56.3</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="12">
         <v>56</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="12">
         <v>239.1</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="13">
         <v>9856.5</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="12">
         <v>48.5</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="12">
         <v>738.1</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="12">
         <v>460.8</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="12">
         <v>350.6</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="12">
         <v>168.4</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="12">
         <v>211.8</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="12">
         <v>19</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="12">
         <v>231.1</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="12">
         <v>181</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="12">
         <v>54.5</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="12">
         <v>34.9</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="12">
         <v>109.9</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="12">
         <v>104.9</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="12">
         <v>43.1</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="12">
         <v>594.79999999999995</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="12">
         <v>839.4</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="12">
         <v>174.8</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="12">
         <v>66.599999999999994</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="12">
         <v>63.2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="12">
         <v>87.1</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="12">
         <v>6.8</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="12">
         <v>23.8</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="12">
         <v>24.6</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AF22" s="13">
         <v>1195.5</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="12">
         <v>147</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="12">
         <v>17</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="12">
         <v>411.2</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="12">
         <v>196.1</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AL22" s="12">
         <v>282.3</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="12">
         <v>54.7</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AN22" s="12">
         <v>39.9</v>
       </c>
-      <c r="AO22" s="6">
+      <c r="AO22" s="13">
         <v>1088.2</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AP22" s="12">
         <v>283.89999999999998</v>
       </c>
-      <c r="AQ22" s="6">
+      <c r="AQ22" s="13">
         <v>1018.1</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AR22" s="12">
         <v>153.9</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22" s="12">
         <v>10.7</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22" s="12">
         <v>153.9</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22" s="12">
         <v>96.3</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AV22" s="12">
         <v>33.6</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AW22" s="12">
         <v>67.900000000000006</v>
       </c>
-      <c r="AX22" s="4">
+      <c r="AX22" s="11">
         <v>791.17406498624428</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AY22" s="12">
         <v>202.6</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="AZ22" s="12">
         <v>101.2</v>
       </c>
-      <c r="BA22" s="1">
+      <c r="BA22" s="12">
         <v>77.099999999999994</v>
       </c>
-      <c r="BB22" s="1">
+      <c r="BB22" s="12">
         <v>105</v>
       </c>
-      <c r="BC22" s="1">
+      <c r="BC22" s="12">
         <v>5.8</v>
       </c>
+      <c r="BD22" s="14"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3">
         <f>SUM(E23:BC23)</f>
@@ -4709,171 +4747,171 @@
         <v>97093.14</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AY24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
